--- a/artfynd/A 21670-2022.xlsx
+++ b/artfynd/A 21670-2022.xlsx
@@ -1383,7 +1383,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>91566261</v>
+        <v>91941698</v>
       </c>
       <c r="B8" t="n">
         <v>5112</v>
@@ -1416,17 +1416,15 @@
           <t>(De Geer, 1775)</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Örebro, Nrk</t>
+          <t>Garphytteklint, Nrk</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1436,7 +1434,7 @@
         <v>6574820.472392829</v>
       </c>
       <c r="S8" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1465,7 +1463,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1475,7 +1473,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1484,18 +1482,24 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
       <c r="AT8" t="inlineStr"/>
+      <c r="AU8" t="inlineStr">
+        <is>
+          <t>Jesper Hansson</t>
+        </is>
+      </c>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Mattias Drejby</t>
+          <t>Barbro Fehrm Friberg</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Mattias Drejby</t>
+          <t>Barbro Fehrm Friberg, Sebastian Kirppu, Josefina Jansson, Lotta Sörman, Mattias Drejby</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
